--- a/test/Login.xlsx
+++ b/test/Login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DinhNguyen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Go\golang.v3\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E0EA59-5210-430C-8BA4-E0AC7994635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A01741-7034-4132-BCFA-D1141406F5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{007EC031-05F4-4FE2-A6EE-340B4AE58F44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{007EC031-05F4-4FE2-A6EE-340B4AE58F44}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -94,17 +94,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>17219</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104048</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>169752</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343BCEA6-D9A1-490B-9D62-63FA71BFA965}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78501D94-0CD3-43E3-9408-C9388972C43C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -121,51 +121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14647619" cy="5819048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>55314</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>151452</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C8BA1C-CDB9-48CE-947F-B9E93CD17CCD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6096000"/>
-          <a:ext cx="14685714" cy="7580952"/>
+          <a:ext cx="13580952" cy="7209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -794,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44066788-97FD-43FD-A6B9-4DD9E5373353}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="R105" sqref="R105"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCBD7F7-6921-4B46-BB27-91C78256B949}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
